--- a/PROYECTO/FIRST.xlsx
+++ b/PROYECTO/FIRST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BREND\Documents\BREND_ESCUELA_2\9_SEMESTRE\COMPILADORES\TAREAS\PROYECTO_FINAL_BRANDON\LEXICO _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FB9F3-A094-456C-8AF7-76E5ADB60106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D6D4A-393A-40FB-8879-5B8ABE6E0698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BD873A7E-26C9-4D98-B1D0-32B26544D0D6}"/>
+    <workbookView xWindow="11640" yWindow="-105" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{BD873A7E-26C9-4D98-B1D0-32B26544D0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,6 +910,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1891,10 +1894,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCAB6C1-032D-404A-BE46-4F55DF858FBF}">
   <dimension ref="A2:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2819,7 @@
       <c r="AC7" s="16">
         <v>301</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="19">
         <v>301</v>
       </c>
       <c r="AE7" s="16">
